--- a/Dokumentation/4. Schritt; Terminplan Erstellen/4. Schritt; Terminplan Erstellen.xlsx
+++ b/Dokumentation/4. Schritt; Terminplan Erstellen/4. Schritt; Terminplan Erstellen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mar996\Desktop\M431 Lernspiel Projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l0g1c4l\Desktop\Modul 431\Projekt\Dokumentation\4. Schritt; Terminplan Erstellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53,21 +53,12 @@
     <t>1 Woche</t>
   </si>
   <si>
-    <t>Amol Ming</t>
-  </si>
-  <si>
     <t>10 Tage</t>
   </si>
   <si>
-    <t>Marcel Mathis</t>
-  </si>
-  <si>
     <t>2 Tage</t>
   </si>
   <si>
-    <t>Pascal Niederberger</t>
-  </si>
-  <si>
     <t>Programm testen</t>
   </si>
   <si>
@@ -84,6 +75,15 @@
   </si>
   <si>
     <t>Lernressourcen beschaffen (Spielinhalt)</t>
+  </si>
+  <si>
+    <t>AMI</t>
+  </si>
+  <si>
+    <t>MMA</t>
+  </si>
+  <si>
+    <t>PNI</t>
   </si>
 </sst>
 </file>
@@ -107,7 +107,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,12 +116,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -231,33 +237,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -575,432 +612,453 @@
   <dimension ref="B2:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD11" sqref="B2:AD11"/>
+      <selection activeCell="B2" sqref="B2:AD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="30" width="2.85546875" customWidth="1"/>
-    <col min="31" max="35" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" customWidth="1"/>
+    <col min="5" max="30" width="2.81640625" customWidth="1"/>
+    <col min="31" max="35" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="8">
+    <row r="2" spans="2:30" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="17">
         <v>42809</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="17">
         <v>42810</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="17">
         <v>42811</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="17">
         <v>42812</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="17">
         <v>42813</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="17">
         <v>42814</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="17">
         <v>42815</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="17">
         <v>42816</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="17">
         <v>42817</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="17">
         <v>42818</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="17">
         <v>42819</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="17">
         <v>42820</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="17">
         <v>42821</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="17">
         <v>42822</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="17">
         <v>42823</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="17">
         <v>42824</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="17">
         <v>42825</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V2" s="17">
         <v>42826</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2" s="17">
         <v>42827</v>
       </c>
-      <c r="X2" s="8">
+      <c r="X2" s="17">
         <v>42828</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2" s="17">
         <v>42829</v>
       </c>
-      <c r="Z2" s="8">
+      <c r="Z2" s="17">
         <v>42830</v>
       </c>
-      <c r="AA2" s="8">
+      <c r="AA2" s="17">
         <v>42831</v>
       </c>
-      <c r="AB2" s="8">
+      <c r="AB2" s="17">
         <v>42832</v>
       </c>
-      <c r="AC2" s="8">
+      <c r="AC2" s="17">
         <v>42833</v>
       </c>
-      <c r="AD2" s="8">
+      <c r="AD2" s="17">
         <v>42834</v>
       </c>
     </row>
-    <row r="3" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
     </row>
-    <row r="4" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
     </row>
-    <row r="6" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+    </row>
+    <row r="7" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+    </row>
+    <row r="8" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+    </row>
+    <row r="9" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="13"/>
     </row>
-    <row r="7" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
+    <row r="10" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="5"/>
     </row>
-    <row r="8" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-    </row>
-    <row r="9" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="5" t="s">
+    <row r="11" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="2"/>
-    </row>
-    <row r="10" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="6"/>
-    </row>
-    <row r="11" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="13"/>
+      <c r="D11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="W2:W3"/>
@@ -1009,24 +1067,6 @@
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumentation/4. Schritt; Terminplan Erstellen/4. Schritt; Terminplan Erstellen.xlsx
+++ b/Dokumentation/4. Schritt; Terminplan Erstellen/4. Schritt; Terminplan Erstellen.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Projekt" sheetId="2" r:id="rId1"/>
+    <sheet name="Terminplan" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Tätigkeit</t>
   </si>
@@ -84,6 +85,69 @@
   </si>
   <si>
     <t>PNI</t>
+  </si>
+  <si>
+    <t>Kriterium</t>
+  </si>
+  <si>
+    <t>Punktzahl</t>
+  </si>
+  <si>
+    <t>Projektgrösse</t>
+  </si>
+  <si>
+    <t>Anzahl Wiederholungen</t>
+  </si>
+  <si>
+    <t>Einbezogene Personen</t>
+  </si>
+  <si>
+    <t>Know-how vorhanden</t>
+  </si>
+  <si>
+    <t>Risiko</t>
+  </si>
+  <si>
+    <t>klein</t>
+  </si>
+  <si>
+    <t>monatlich</t>
+  </si>
+  <si>
+    <t>wenige</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>gering</t>
+  </si>
+  <si>
+    <t>mittel</t>
+  </si>
+  <si>
+    <t>1 mal jährlich</t>
+  </si>
+  <si>
+    <t>ein wenig</t>
+  </si>
+  <si>
+    <t>gross</t>
+  </si>
+  <si>
+    <t>1 mal in 5 Jahren</t>
+  </si>
+  <si>
+    <t>viele</t>
+  </si>
+  <si>
+    <t>nein</t>
+  </si>
+  <si>
+    <t>Total Punkte</t>
+  </si>
+  <si>
+    <t>10 Punkte</t>
   </si>
 </sst>
 </file>
@@ -107,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,8 +190,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -263,11 +339,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -285,16 +370,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -609,9 +711,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="4" width="15.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29">
+        <v>1</v>
+      </c>
+      <c r="C2" s="29">
+        <v>2</v>
+      </c>
+      <c r="D2" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:AD11"/>
     </sheetView>
   </sheetViews>
@@ -624,124 +855,124 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:30" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="17">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="21">
         <v>42809</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="21">
         <v>42810</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="21">
         <v>42811</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="21">
         <v>42812</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="21">
         <v>42813</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="21">
         <v>42814</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="21">
         <v>42815</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="21">
         <v>42816</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="21">
         <v>42817</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="21">
         <v>42818</v>
       </c>
-      <c r="O2" s="17">
+      <c r="O2" s="21">
         <v>42819</v>
       </c>
-      <c r="P2" s="17">
+      <c r="P2" s="21">
         <v>42820</v>
       </c>
-      <c r="Q2" s="17">
+      <c r="Q2" s="21">
         <v>42821</v>
       </c>
-      <c r="R2" s="17">
+      <c r="R2" s="21">
         <v>42822</v>
       </c>
-      <c r="S2" s="17">
+      <c r="S2" s="21">
         <v>42823</v>
       </c>
-      <c r="T2" s="17">
+      <c r="T2" s="21">
         <v>42824</v>
       </c>
-      <c r="U2" s="17">
+      <c r="U2" s="21">
         <v>42825</v>
       </c>
-      <c r="V2" s="17">
+      <c r="V2" s="21">
         <v>42826</v>
       </c>
-      <c r="W2" s="17">
+      <c r="W2" s="21">
         <v>42827</v>
       </c>
-      <c r="X2" s="17">
+      <c r="X2" s="21">
         <v>42828</v>
       </c>
-      <c r="Y2" s="17">
+      <c r="Y2" s="21">
         <v>42829</v>
       </c>
-      <c r="Z2" s="17">
+      <c r="Z2" s="21">
         <v>42830</v>
       </c>
-      <c r="AA2" s="17">
+      <c r="AA2" s="21">
         <v>42831</v>
       </c>
-      <c r="AB2" s="17">
+      <c r="AB2" s="21">
         <v>42832</v>
       </c>
-      <c r="AC2" s="17">
+      <c r="AC2" s="21">
         <v>42833</v>
       </c>
-      <c r="AD2" s="17">
+      <c r="AD2" s="21">
         <v>42834</v>
       </c>
     </row>
     <row r="3" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
     </row>
     <row r="4" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
@@ -754,8 +985,8 @@
         <v>6</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="6"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1041,12 +1272,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
@@ -1059,14 +1292,12 @@
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
